--- a/data/monitoring_senescence/percent_chlorocontent.xlsx
+++ b/data/monitoring_senescence/percent_chlorocontent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_senescence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D28B23-5FCA-4A42-95C9-A24DF912B6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F385BD-7882-9F4A-93E2-DBC8CB7BA550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2615" uniqueCount="667">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2015,6 +2015,15 @@
   </si>
   <si>
     <t>doy248:barely dead, measurement on only one leaf that fell after measure</t>
+  </si>
+  <si>
+    <t>doy248:1 lateral branch dead</t>
+  </si>
+  <si>
+    <t>three branches died because of herbivory</t>
+  </si>
+  <si>
+    <t>sick</t>
   </si>
 </sst>
 </file>
@@ -2763,7 +2772,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:J631" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J631" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}"/>
+  <autoFilter ref="A1:J631" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="populus"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="8"/>
@@ -3099,9 +3114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K160" sqref="K160"/>
+    <sheetView tabSelected="1" topLeftCell="A339" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N354" sqref="N354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3145,7 +3160,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3174,7 +3189,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3203,7 +3218,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3232,7 +3247,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3261,7 +3276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3290,7 +3305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3319,7 +3334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3348,7 +3363,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3377,7 +3392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3406,7 +3421,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3435,7 +3450,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3464,7 +3479,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3493,7 +3508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3522,7 +3537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -3551,7 +3566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3580,7 +3595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3609,7 +3624,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3638,7 +3653,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3667,7 +3682,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3696,7 +3711,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3725,7 +3740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3754,7 +3769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3783,7 +3798,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3812,7 +3827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3841,7 +3856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3870,7 +3885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3899,7 +3914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3928,7 +3943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3957,7 +3972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3986,7 +4001,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -4015,7 +4030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -4044,7 +4059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -4073,7 +4088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -4102,7 +4117,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -4131,7 +4146,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -4160,7 +4175,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -4189,7 +4204,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -4218,7 +4233,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -4247,7 +4262,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -4276,7 +4291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -4305,7 +4320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -4334,7 +4349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -4363,7 +4378,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -4392,7 +4407,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -4421,7 +4436,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -4450,7 +4465,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -4479,7 +4494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -4508,7 +4523,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -4537,7 +4552,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -4566,7 +4581,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -4595,7 +4610,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -4624,7 +4639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -4653,7 +4668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -4682,7 +4697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -4711,7 +4726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -4740,7 +4755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -4769,7 +4784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -4798,7 +4813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -4827,7 +4842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -4856,7 +4871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -4885,7 +4900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -4914,7 +4929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -4943,7 +4958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -4972,7 +4987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -5001,7 +5016,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -5030,7 +5045,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -5059,7 +5074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -5088,7 +5103,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -5117,7 +5132,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -5146,7 +5161,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -5175,7 +5190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -5204,7 +5219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -5233,7 +5248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -5262,7 +5277,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -5291,7 +5306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -5320,7 +5335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -5349,7 +5364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -5378,7 +5393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -5407,7 +5422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -5436,7 +5451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -5465,7 +5480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -5494,7 +5509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -5523,7 +5538,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -5552,7 +5567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -5581,7 +5596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -5610,7 +5625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -5639,7 +5654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -5668,7 +5683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -5697,7 +5712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -5726,7 +5741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -5755,7 +5770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -5784,7 +5799,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -5813,7 +5828,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -5842,7 +5857,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -5871,7 +5886,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -5900,7 +5915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -5929,7 +5944,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -5958,7 +5973,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -5987,7 +6002,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -6016,7 +6031,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -6045,7 +6060,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -6061,20 +6076,20 @@
       <c r="E102" t="s">
         <v>106</v>
       </c>
-      <c r="G102" s="1">
+      <c r="G102">
         <v>9.9</v>
       </c>
-      <c r="H102" s="1">
+      <c r="H102">
         <v>5.7</v>
       </c>
-      <c r="I102" s="1">
+      <c r="I102">
         <v>5.2</v>
       </c>
-      <c r="J102" s="1">
+      <c r="J102">
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -6090,20 +6105,20 @@
       <c r="E103" t="s">
         <v>106</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G103">
         <v>14.6</v>
       </c>
-      <c r="H103" s="1">
+      <c r="H103">
         <v>18.899999999999999</v>
       </c>
-      <c r="I103" s="1">
+      <c r="I103">
         <v>6.6</v>
       </c>
-      <c r="J103" s="1">
+      <c r="J103">
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -6119,20 +6134,20 @@
       <c r="E104" t="s">
         <v>106</v>
       </c>
-      <c r="G104" s="1">
+      <c r="G104">
         <v>11.2</v>
       </c>
-      <c r="H104" s="1">
+      <c r="H104">
         <v>7.1</v>
       </c>
-      <c r="I104" s="1">
+      <c r="I104">
         <v>5.6</v>
       </c>
-      <c r="J104" s="1">
+      <c r="J104">
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -6148,20 +6163,20 @@
       <c r="E105" t="s">
         <v>106</v>
       </c>
-      <c r="G105" s="1">
+      <c r="G105">
         <v>19.8</v>
       </c>
-      <c r="H105" s="1">
+      <c r="H105">
         <v>12</v>
       </c>
-      <c r="I105" s="1">
+      <c r="I105">
         <v>6.6</v>
       </c>
-      <c r="J105" s="1">
+      <c r="J105">
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -6177,20 +6192,20 @@
       <c r="E106" t="s">
         <v>106</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G106">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H106">
         <v>6.4</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I106">
         <v>5.5</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J106">
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -6219,7 +6234,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -6248,7 +6263,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -6277,7 +6292,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -6306,7 +6321,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -6335,7 +6350,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -6364,7 +6379,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -6393,7 +6408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -6422,7 +6437,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -6451,7 +6466,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -6480,7 +6495,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -6509,7 +6524,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -6538,7 +6553,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -6567,7 +6582,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -6596,7 +6611,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -6625,7 +6640,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -6654,7 +6669,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>137</v>
       </c>
@@ -6683,7 +6698,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -6712,7 +6727,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -6741,7 +6756,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -6770,7 +6785,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>141</v>
       </c>
@@ -6799,7 +6814,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -6828,7 +6843,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -6857,7 +6872,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -6886,7 +6901,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -6915,7 +6930,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -6944,7 +6959,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -6973,7 +6988,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -7002,7 +7017,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -7031,7 +7046,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -7060,7 +7075,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -7089,7 +7104,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -7118,7 +7133,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -7147,7 +7162,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -7176,7 +7191,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -7205,7 +7220,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -7234,7 +7249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>157</v>
       </c>
@@ -7263,7 +7278,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -7292,7 +7307,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -7321,7 +7336,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>160</v>
       </c>
@@ -7350,7 +7365,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -7379,7 +7394,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -7408,7 +7423,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -7437,7 +7452,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -7466,7 +7481,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -7495,7 +7510,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>166</v>
       </c>
@@ -7524,7 +7539,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>167</v>
       </c>
@@ -7553,7 +7568,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -7582,7 +7597,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>169</v>
       </c>
@@ -7611,7 +7626,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -7640,7 +7655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -7669,7 +7684,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>172</v>
       </c>
@@ -7698,7 +7713,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -7727,7 +7742,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -7756,7 +7771,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>175</v>
       </c>
@@ -7785,7 +7800,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -7814,7 +7829,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -7843,7 +7858,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -7872,7 +7887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -7901,7 +7916,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -7930,7 +7945,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -7959,7 +7974,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -7988,7 +8003,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -8017,7 +8032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -8046,7 +8061,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -8075,7 +8090,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -8104,7 +8119,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -8133,7 +8148,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -8162,7 +8177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -8191,7 +8206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -8220,7 +8235,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -8249,7 +8264,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -8278,7 +8293,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -8307,7 +8322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -8336,7 +8351,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -8365,7 +8380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -8381,12 +8396,8 @@
       <c r="E182" t="s">
         <v>198</v>
       </c>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -8402,12 +8413,8 @@
       <c r="E183" t="s">
         <v>198</v>
       </c>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -8423,12 +8430,8 @@
       <c r="E184" t="s">
         <v>198</v>
       </c>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -8445,7 +8448,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -8462,7 +8465,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -8479,7 +8482,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -8496,7 +8499,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -8513,7 +8516,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -8530,7 +8533,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -8547,7 +8550,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -8564,7 +8567,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -8581,7 +8584,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -8598,7 +8601,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -8615,7 +8618,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -8632,7 +8635,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -8648,12 +8651,8 @@
       <c r="E197" t="s">
         <v>198</v>
       </c>
-      <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -8669,12 +8668,8 @@
       <c r="E198" t="s">
         <v>198</v>
       </c>
-      <c r="G198" s="1"/>
-      <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
-      <c r="J198" s="1"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -8690,12 +8685,8 @@
       <c r="E199" t="s">
         <v>198</v>
       </c>
-      <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -8711,12 +8702,8 @@
       <c r="E200" t="s">
         <v>198</v>
       </c>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -8732,12 +8719,8 @@
       <c r="E201" t="s">
         <v>198</v>
       </c>
-      <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
-      <c r="I201" s="1"/>
-      <c r="J201" s="1"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -8754,7 +8737,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -8771,7 +8754,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -8788,7 +8771,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -8805,7 +8788,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -8822,7 +8805,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -8839,7 +8822,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -8856,7 +8839,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -8873,7 +8856,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -8890,7 +8873,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -8907,7 +8890,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -8924,7 +8907,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -8941,7 +8924,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -8958,7 +8941,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -8975,7 +8958,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -8992,7 +8975,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -9009,7 +8992,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -9026,7 +9009,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -9043,7 +9026,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -9060,7 +9043,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -9077,7 +9060,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -9094,7 +9077,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -9111,7 +9094,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -9128,7 +9111,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -9145,7 +9128,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -9162,7 +9145,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -9179,7 +9162,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -9196,7 +9179,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -9213,7 +9196,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -9230,7 +9213,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -9247,7 +9230,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -9264,7 +9247,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -9281,7 +9264,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -9298,7 +9281,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -9315,7 +9298,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -9332,7 +9315,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -9349,7 +9332,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -9366,7 +9349,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -9383,7 +9366,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -9400,7 +9383,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -9417,7 +9400,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -9434,7 +9417,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -9451,7 +9434,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -9468,7 +9451,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -9485,7 +9468,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -9502,7 +9485,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -9519,7 +9502,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -9536,7 +9519,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -9553,7 +9536,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -9570,7 +9553,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -9587,7 +9570,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -9604,7 +9587,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -9621,7 +9604,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -9638,7 +9621,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -9655,7 +9638,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -9672,7 +9655,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -9689,7 +9672,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -9706,7 +9689,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -9723,7 +9706,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -9740,7 +9723,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -9757,7 +9740,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -9774,7 +9757,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -9791,7 +9774,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -9808,7 +9791,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -9825,7 +9808,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -9842,7 +9825,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>283</v>
       </c>
@@ -9859,7 +9842,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -9876,7 +9859,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>285</v>
       </c>
@@ -9893,7 +9876,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>286</v>
       </c>
@@ -9910,7 +9893,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>287</v>
       </c>
@@ -9927,7 +9910,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>288</v>
       </c>
@@ -9943,8 +9926,23 @@
       <c r="E272" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F272" t="s">
+        <v>664</v>
+      </c>
+      <c r="G272">
+        <v>5</v>
+      </c>
+      <c r="H272">
+        <v>7.2</v>
+      </c>
+      <c r="I272">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J272">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>291</v>
       </c>
@@ -9960,8 +9958,20 @@
       <c r="E273" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G273">
+        <v>6.2</v>
+      </c>
+      <c r="H273">
+        <v>6.2</v>
+      </c>
+      <c r="I273">
+        <v>5.5</v>
+      </c>
+      <c r="J273">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>292</v>
       </c>
@@ -9977,8 +9987,20 @@
       <c r="E274" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G274">
+        <v>6.4</v>
+      </c>
+      <c r="H274">
+        <v>7.3</v>
+      </c>
+      <c r="I274">
+        <v>5</v>
+      </c>
+      <c r="J274">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -9994,8 +10016,20 @@
       <c r="E275" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G275">
+        <v>7.8</v>
+      </c>
+      <c r="H275">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I275">
+        <v>2.6</v>
+      </c>
+      <c r="J275">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>294</v>
       </c>
@@ -10011,8 +10045,20 @@
       <c r="E276" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G276">
+        <v>6.2</v>
+      </c>
+      <c r="H276">
+        <v>3</v>
+      </c>
+      <c r="I276">
+        <v>2.1</v>
+      </c>
+      <c r="J276">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>295</v>
       </c>
@@ -10028,8 +10074,20 @@
       <c r="E277" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G277">
+        <v>7.7</v>
+      </c>
+      <c r="H277">
+        <v>6.6</v>
+      </c>
+      <c r="I277">
+        <v>10.8</v>
+      </c>
+      <c r="J277">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>296</v>
       </c>
@@ -10045,8 +10103,20 @@
       <c r="E278" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G278">
+        <v>8.9</v>
+      </c>
+      <c r="H278">
+        <v>6.3</v>
+      </c>
+      <c r="I278">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J278">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>297</v>
       </c>
@@ -10062,8 +10132,20 @@
       <c r="E279" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G279">
+        <v>7.3</v>
+      </c>
+      <c r="H279">
+        <v>6.2</v>
+      </c>
+      <c r="I279">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J279">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>298</v>
       </c>
@@ -10079,8 +10161,20 @@
       <c r="E280" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G280">
+        <v>2.4</v>
+      </c>
+      <c r="H280">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I280">
+        <v>6.6</v>
+      </c>
+      <c r="J280">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>299</v>
       </c>
@@ -10096,8 +10190,20 @@
       <c r="E281" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G281">
+        <v>6</v>
+      </c>
+      <c r="H281">
+        <v>12.3</v>
+      </c>
+      <c r="I281">
+        <v>5.5</v>
+      </c>
+      <c r="J281">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>300</v>
       </c>
@@ -10113,8 +10219,20 @@
       <c r="E282" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G282">
+        <v>5.4</v>
+      </c>
+      <c r="H282">
+        <v>7.7</v>
+      </c>
+      <c r="I282">
+        <v>6.5</v>
+      </c>
+      <c r="J282">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>301</v>
       </c>
@@ -10130,8 +10248,20 @@
       <c r="E283" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G283" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>302</v>
       </c>
@@ -10147,8 +10277,20 @@
       <c r="E284" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G284" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H284" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="I284" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="J284" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>303</v>
       </c>
@@ -10164,8 +10306,20 @@
       <c r="E285" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G285">
+        <v>7.2</v>
+      </c>
+      <c r="H285">
+        <v>6.2</v>
+      </c>
+      <c r="I285">
+        <v>7.7</v>
+      </c>
+      <c r="J285">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>304</v>
       </c>
@@ -10181,8 +10335,20 @@
       <c r="E286" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G286">
+        <v>10.7</v>
+      </c>
+      <c r="H286">
+        <v>10.6</v>
+      </c>
+      <c r="I286">
+        <v>9</v>
+      </c>
+      <c r="J286">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>305</v>
       </c>
@@ -10198,8 +10364,20 @@
       <c r="E287" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G287">
+        <v>5.5</v>
+      </c>
+      <c r="H287">
+        <v>9.6</v>
+      </c>
+      <c r="I287">
+        <v>7.5</v>
+      </c>
+      <c r="J287">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>306</v>
       </c>
@@ -10215,8 +10393,20 @@
       <c r="E288" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G288">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H288">
+        <v>4.5</v>
+      </c>
+      <c r="I288">
+        <v>7.6</v>
+      </c>
+      <c r="J288">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>307</v>
       </c>
@@ -10232,8 +10422,20 @@
       <c r="E289" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G289">
+        <v>10.9</v>
+      </c>
+      <c r="H289">
+        <v>6.5</v>
+      </c>
+      <c r="I289">
+        <v>6.8</v>
+      </c>
+      <c r="J289">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>308</v>
       </c>
@@ -10249,8 +10451,20 @@
       <c r="E290" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G290">
+        <v>10.6</v>
+      </c>
+      <c r="H290">
+        <v>7.1</v>
+      </c>
+      <c r="I290">
+        <v>10.6</v>
+      </c>
+      <c r="J290">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>309</v>
       </c>
@@ -10266,8 +10480,20 @@
       <c r="E291" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G291">
+        <v>6.8</v>
+      </c>
+      <c r="H291">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I291">
+        <v>7</v>
+      </c>
+      <c r="J291">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>310</v>
       </c>
@@ -10283,8 +10509,20 @@
       <c r="E292" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G292">
+        <v>11.5</v>
+      </c>
+      <c r="H292">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I292">
+        <v>5.9</v>
+      </c>
+      <c r="J292">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>311</v>
       </c>
@@ -10300,8 +10538,20 @@
       <c r="E293" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G293">
+        <v>10.7</v>
+      </c>
+      <c r="H293">
+        <v>7.6</v>
+      </c>
+      <c r="I293">
+        <v>9.4</v>
+      </c>
+      <c r="J293">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>312</v>
       </c>
@@ -10317,8 +10567,20 @@
       <c r="E294" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G294">
+        <v>10.4</v>
+      </c>
+      <c r="H294">
+        <v>10.7</v>
+      </c>
+      <c r="I294">
+        <v>6.3</v>
+      </c>
+      <c r="J294">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>313</v>
       </c>
@@ -10334,8 +10596,20 @@
       <c r="E295" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G295">
+        <v>7</v>
+      </c>
+      <c r="H295">
+        <v>12.6</v>
+      </c>
+      <c r="I295">
+        <v>7.8</v>
+      </c>
+      <c r="J295">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>314</v>
       </c>
@@ -10351,8 +10625,20 @@
       <c r="E296" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G296">
+        <v>6.4</v>
+      </c>
+      <c r="H296">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I296">
+        <v>7.9</v>
+      </c>
+      <c r="J296">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>315</v>
       </c>
@@ -10368,8 +10654,20 @@
       <c r="E297" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G297">
+        <v>9.4</v>
+      </c>
+      <c r="H297">
+        <v>4.3</v>
+      </c>
+      <c r="I297">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J297">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>316</v>
       </c>
@@ -10385,8 +10683,20 @@
       <c r="E298" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G298">
+        <v>5.6</v>
+      </c>
+      <c r="H298">
+        <v>6.4</v>
+      </c>
+      <c r="I298">
+        <v>7.2</v>
+      </c>
+      <c r="J298">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>317</v>
       </c>
@@ -10402,8 +10712,20 @@
       <c r="E299" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G299">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H299">
+        <v>9.4</v>
+      </c>
+      <c r="I299">
+        <v>7.5</v>
+      </c>
+      <c r="J299">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>318</v>
       </c>
@@ -10419,8 +10741,20 @@
       <c r="E300" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G300">
+        <v>7.7</v>
+      </c>
+      <c r="H300">
+        <v>4.2</v>
+      </c>
+      <c r="I300">
+        <v>8.5</v>
+      </c>
+      <c r="J300">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>319</v>
       </c>
@@ -10436,8 +10770,20 @@
       <c r="E301" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G301">
+        <v>6</v>
+      </c>
+      <c r="H301">
+        <v>11.4</v>
+      </c>
+      <c r="I301">
+        <v>8.5</v>
+      </c>
+      <c r="J301">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>320</v>
       </c>
@@ -10453,8 +10799,20 @@
       <c r="E302" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G302">
+        <v>6.3</v>
+      </c>
+      <c r="H302">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I302">
+        <v>5.2</v>
+      </c>
+      <c r="J302">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>321</v>
       </c>
@@ -10470,8 +10828,20 @@
       <c r="E303" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G303">
+        <v>7.8</v>
+      </c>
+      <c r="H303">
+        <v>4.8</v>
+      </c>
+      <c r="I303">
+        <v>6.7</v>
+      </c>
+      <c r="J303">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>322</v>
       </c>
@@ -10487,8 +10857,20 @@
       <c r="E304" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G304">
+        <v>7.9</v>
+      </c>
+      <c r="H304">
+        <v>9.9</v>
+      </c>
+      <c r="I304">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J304">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>323</v>
       </c>
@@ -10504,8 +10886,20 @@
       <c r="E305" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G305">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H305">
+        <v>8.4</v>
+      </c>
+      <c r="I305">
+        <v>8.9</v>
+      </c>
+      <c r="J305">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>324</v>
       </c>
@@ -10521,8 +10915,20 @@
       <c r="E306" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G306">
+        <v>7.7</v>
+      </c>
+      <c r="H306">
+        <v>6.9</v>
+      </c>
+      <c r="I306">
+        <v>6.3</v>
+      </c>
+      <c r="J306">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>325</v>
       </c>
@@ -10538,8 +10944,20 @@
       <c r="E307" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G307">
+        <v>9.1</v>
+      </c>
+      <c r="H307">
+        <v>1.5</v>
+      </c>
+      <c r="I307">
+        <v>8.9</v>
+      </c>
+      <c r="J307">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>326</v>
       </c>
@@ -10555,8 +10973,20 @@
       <c r="E308" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G308">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H308">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I308">
+        <v>7</v>
+      </c>
+      <c r="J308">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>327</v>
       </c>
@@ -10572,8 +11002,20 @@
       <c r="E309" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G309">
+        <v>7.3</v>
+      </c>
+      <c r="H309">
+        <v>11.8</v>
+      </c>
+      <c r="I309">
+        <v>6.6</v>
+      </c>
+      <c r="J309">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>328</v>
       </c>
@@ -10589,8 +11031,20 @@
       <c r="E310" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G310">
+        <v>10.5</v>
+      </c>
+      <c r="H310">
+        <v>10</v>
+      </c>
+      <c r="I310">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J310">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>329</v>
       </c>
@@ -10606,8 +11060,20 @@
       <c r="E311" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G311">
+        <v>5.4</v>
+      </c>
+      <c r="H311">
+        <v>6.8</v>
+      </c>
+      <c r="I311">
+        <v>6</v>
+      </c>
+      <c r="J311">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -10623,8 +11089,20 @@
       <c r="E312" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G312">
+        <v>8.6</v>
+      </c>
+      <c r="H312">
+        <v>7.8</v>
+      </c>
+      <c r="I312">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J312">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>331</v>
       </c>
@@ -10640,8 +11118,20 @@
       <c r="E313" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G313">
+        <v>5.9</v>
+      </c>
+      <c r="H313">
+        <v>6</v>
+      </c>
+      <c r="I313">
+        <v>6.1</v>
+      </c>
+      <c r="J313">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>332</v>
       </c>
@@ -10657,8 +11147,20 @@
       <c r="E314" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G314">
+        <v>5.4</v>
+      </c>
+      <c r="H314">
+        <v>6.8</v>
+      </c>
+      <c r="I314">
+        <v>7.5</v>
+      </c>
+      <c r="J314">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>333</v>
       </c>
@@ -10674,8 +11176,20 @@
       <c r="E315" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G315" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="H315" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="I315" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="J315" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>334</v>
       </c>
@@ -10691,8 +11205,20 @@
       <c r="E316" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G316">
+        <v>7.4</v>
+      </c>
+      <c r="H316">
+        <v>5.6</v>
+      </c>
+      <c r="I316">
+        <v>7.2</v>
+      </c>
+      <c r="J316">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>335</v>
       </c>
@@ -10708,8 +11234,20 @@
       <c r="E317" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G317">
+        <v>7.9</v>
+      </c>
+      <c r="H317">
+        <v>6.3</v>
+      </c>
+      <c r="I317">
+        <v>7.4</v>
+      </c>
+      <c r="J317">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>336</v>
       </c>
@@ -10725,8 +11263,20 @@
       <c r="E318" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G318">
+        <v>7.6</v>
+      </c>
+      <c r="H318">
+        <v>7.3</v>
+      </c>
+      <c r="I318">
+        <v>7.2</v>
+      </c>
+      <c r="J318">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>337</v>
       </c>
@@ -10742,8 +11292,20 @@
       <c r="E319" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G319">
+        <v>7.8</v>
+      </c>
+      <c r="H319">
+        <v>9.1</v>
+      </c>
+      <c r="I319">
+        <v>9.1</v>
+      </c>
+      <c r="J319">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>338</v>
       </c>
@@ -10759,8 +11321,20 @@
       <c r="E320" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G320">
+        <v>7.5</v>
+      </c>
+      <c r="H320">
+        <v>7.1</v>
+      </c>
+      <c r="I320">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J320">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>339</v>
       </c>
@@ -10776,8 +11350,20 @@
       <c r="E321" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G321">
+        <v>7</v>
+      </c>
+      <c r="H321">
+        <v>7.2</v>
+      </c>
+      <c r="I321">
+        <v>3.7</v>
+      </c>
+      <c r="J321">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>340</v>
       </c>
@@ -10793,8 +11379,20 @@
       <c r="E322" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G322" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="H322" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="I322" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="J322" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>341</v>
       </c>
@@ -10810,8 +11408,20 @@
       <c r="E323" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G323" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="H323" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="I323" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J323" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>342</v>
       </c>
@@ -10827,8 +11437,20 @@
       <c r="E324" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G324" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="H324" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="I324" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="J324" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>343</v>
       </c>
@@ -10844,8 +11466,20 @@
       <c r="E325" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G325" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="H325" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I325" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J325" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -10861,8 +11495,20 @@
       <c r="E326" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G326">
+        <v>6.9</v>
+      </c>
+      <c r="H326">
+        <v>6.9</v>
+      </c>
+      <c r="I326">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J326">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>345</v>
       </c>
@@ -10878,8 +11524,20 @@
       <c r="E327" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G327">
+        <v>7.7</v>
+      </c>
+      <c r="H327">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I327">
+        <v>9.6</v>
+      </c>
+      <c r="J327">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>346</v>
       </c>
@@ -10895,8 +11553,20 @@
       <c r="E328" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G328">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H328">
+        <v>10</v>
+      </c>
+      <c r="I328">
+        <v>7.8</v>
+      </c>
+      <c r="J328">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>347</v>
       </c>
@@ -10912,8 +11582,20 @@
       <c r="E329" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G329">
+        <v>7.8</v>
+      </c>
+      <c r="H329">
+        <v>7.5</v>
+      </c>
+      <c r="I329">
+        <v>7</v>
+      </c>
+      <c r="J329">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>348</v>
       </c>
@@ -10929,8 +11611,20 @@
       <c r="E330" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G330">
+        <v>8.9</v>
+      </c>
+      <c r="H330">
+        <v>16.2</v>
+      </c>
+      <c r="I330">
+        <v>7.4</v>
+      </c>
+      <c r="J330">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>349</v>
       </c>
@@ -10946,8 +11640,23 @@
       <c r="E331" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F331" t="s">
+        <v>665</v>
+      </c>
+      <c r="G331">
+        <v>3.8</v>
+      </c>
+      <c r="H331">
+        <v>8.5</v>
+      </c>
+      <c r="I331">
+        <v>10</v>
+      </c>
+      <c r="J331">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>350</v>
       </c>
@@ -10963,8 +11672,20 @@
       <c r="E332" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G332">
+        <v>7.5</v>
+      </c>
+      <c r="H332">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I332">
+        <v>11.3</v>
+      </c>
+      <c r="J332">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>351</v>
       </c>
@@ -10980,8 +11701,20 @@
       <c r="E333" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G333">
+        <v>10.3</v>
+      </c>
+      <c r="H333">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I333">
+        <v>8.5</v>
+      </c>
+      <c r="J333">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>352</v>
       </c>
@@ -10997,8 +11730,20 @@
       <c r="E334" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G334">
+        <v>8.5</v>
+      </c>
+      <c r="H334">
+        <v>9.1</v>
+      </c>
+      <c r="I334">
+        <v>7</v>
+      </c>
+      <c r="J334">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>353</v>
       </c>
@@ -11014,8 +11759,20 @@
       <c r="E335" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G335">
+        <v>13.6</v>
+      </c>
+      <c r="H335">
+        <v>11.2</v>
+      </c>
+      <c r="I335">
+        <v>10.1</v>
+      </c>
+      <c r="J335">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>354</v>
       </c>
@@ -11031,8 +11788,20 @@
       <c r="E336" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G336">
+        <v>5.3</v>
+      </c>
+      <c r="H336">
+        <v>9.1</v>
+      </c>
+      <c r="I336">
+        <v>5.2</v>
+      </c>
+      <c r="J336">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>355</v>
       </c>
@@ -11048,8 +11817,20 @@
       <c r="E337" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G337">
+        <v>9</v>
+      </c>
+      <c r="H337">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I337">
+        <v>6.6</v>
+      </c>
+      <c r="J337">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>356</v>
       </c>
@@ -11065,8 +11846,20 @@
       <c r="E338" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G338">
+        <v>4.7</v>
+      </c>
+      <c r="H338">
+        <v>6.6</v>
+      </c>
+      <c r="I338">
+        <v>10.6</v>
+      </c>
+      <c r="J338">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>357</v>
       </c>
@@ -11082,8 +11875,20 @@
       <c r="E339" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G339">
+        <v>11.5</v>
+      </c>
+      <c r="H339">
+        <v>13.8</v>
+      </c>
+      <c r="I339">
+        <v>13.5</v>
+      </c>
+      <c r="J339">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>358</v>
       </c>
@@ -11099,8 +11904,20 @@
       <c r="E340" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G340">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H340">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I340">
+        <v>8.9</v>
+      </c>
+      <c r="J340">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>359</v>
       </c>
@@ -11116,8 +11933,20 @@
       <c r="E341" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G341">
+        <v>10.6</v>
+      </c>
+      <c r="H341">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I341">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J341">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>360</v>
       </c>
@@ -11133,8 +11962,20 @@
       <c r="E342" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G342">
+        <v>20</v>
+      </c>
+      <c r="H342">
+        <v>7.8</v>
+      </c>
+      <c r="I342">
+        <v>7.1</v>
+      </c>
+      <c r="J342">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>361</v>
       </c>
@@ -11150,8 +11991,23 @@
       <c r="E343" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F343" t="s">
+        <v>666</v>
+      </c>
+      <c r="G343">
+        <v>6.7</v>
+      </c>
+      <c r="H343">
+        <v>4.7</v>
+      </c>
+      <c r="I343">
+        <v>6.5</v>
+      </c>
+      <c r="J343">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>362</v>
       </c>
@@ -11167,8 +12023,20 @@
       <c r="E344" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G344">
+        <v>5.9</v>
+      </c>
+      <c r="H344">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I344">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J344">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>363</v>
       </c>
@@ -11184,8 +12052,20 @@
       <c r="E345" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G345">
+        <v>9.4</v>
+      </c>
+      <c r="H345">
+        <v>7</v>
+      </c>
+      <c r="I345">
+        <v>7.9</v>
+      </c>
+      <c r="J345">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>364</v>
       </c>
@@ -11201,8 +12081,20 @@
       <c r="E346" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G346">
+        <v>6.3</v>
+      </c>
+      <c r="H346">
+        <v>8.6</v>
+      </c>
+      <c r="I346">
+        <v>4.7</v>
+      </c>
+      <c r="J346">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>365</v>
       </c>
@@ -11218,8 +12110,20 @@
       <c r="E347" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G347">
+        <v>12.3</v>
+      </c>
+      <c r="H347">
+        <v>4.7</v>
+      </c>
+      <c r="I347">
+        <v>7.5</v>
+      </c>
+      <c r="J347">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>366</v>
       </c>
@@ -11235,8 +12139,20 @@
       <c r="E348" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G348">
+        <v>7.3</v>
+      </c>
+      <c r="H348">
+        <v>9.4</v>
+      </c>
+      <c r="I348">
+        <v>8.6</v>
+      </c>
+      <c r="J348">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>367</v>
       </c>
@@ -11252,8 +12168,20 @@
       <c r="E349" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G349">
+        <v>6.5</v>
+      </c>
+      <c r="H349">
+        <v>1.2</v>
+      </c>
+      <c r="I349">
+        <v>7.8</v>
+      </c>
+      <c r="J349">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>368</v>
       </c>
@@ -11269,8 +12197,20 @@
       <c r="E350" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G350">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H350">
+        <v>7.4</v>
+      </c>
+      <c r="I350">
+        <v>7</v>
+      </c>
+      <c r="J350">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>369</v>
       </c>
@@ -11286,8 +12226,20 @@
       <c r="E351" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G351">
+        <v>6.5</v>
+      </c>
+      <c r="H351">
+        <v>1.4</v>
+      </c>
+      <c r="I351">
+        <v>6.7</v>
+      </c>
+      <c r="J351">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>370</v>
       </c>
@@ -11302,6 +12254,18 @@
       </c>
       <c r="E352" t="s">
         <v>290</v>
+      </c>
+      <c r="G352">
+        <v>8.4</v>
+      </c>
+      <c r="H352">
+        <v>9.5</v>
+      </c>
+      <c r="I352">
+        <v>9.4</v>
+      </c>
+      <c r="J352">
+        <v>80</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
@@ -11320,6 +12284,18 @@
       <c r="E353" t="s">
         <v>290</v>
       </c>
+      <c r="G353">
+        <v>9</v>
+      </c>
+      <c r="H353">
+        <v>9.9</v>
+      </c>
+      <c r="I353">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J353">
+        <v>90</v>
+      </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
@@ -11337,6 +12313,18 @@
       <c r="E354" t="s">
         <v>290</v>
       </c>
+      <c r="G354">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H354">
+        <v>11.2</v>
+      </c>
+      <c r="I354">
+        <v>10.9</v>
+      </c>
+      <c r="J354">
+        <v>80</v>
+      </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
@@ -11354,6 +12342,18 @@
       <c r="E355" t="s">
         <v>290</v>
       </c>
+      <c r="G355" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="I355" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="J355" s="1" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
@@ -11371,6 +12371,18 @@
       <c r="E356" t="s">
         <v>290</v>
       </c>
+      <c r="G356">
+        <v>5.8</v>
+      </c>
+      <c r="H356">
+        <v>11.7</v>
+      </c>
+      <c r="I356">
+        <v>5.2</v>
+      </c>
+      <c r="J356">
+        <v>80</v>
+      </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
@@ -11388,6 +12400,18 @@
       <c r="E357" t="s">
         <v>290</v>
       </c>
+      <c r="G357" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H357" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="I357" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="J357" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
@@ -11405,6 +12429,18 @@
       <c r="E358" t="s">
         <v>290</v>
       </c>
+      <c r="G358">
+        <v>7.7</v>
+      </c>
+      <c r="H358">
+        <v>13.7</v>
+      </c>
+      <c r="I358">
+        <v>6.4</v>
+      </c>
+      <c r="J358">
+        <v>80</v>
+      </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
@@ -11422,6 +12458,18 @@
       <c r="E359" t="s">
         <v>290</v>
       </c>
+      <c r="G359">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H359">
+        <v>3.9</v>
+      </c>
+      <c r="I359">
+        <v>10.3</v>
+      </c>
+      <c r="J359">
+        <v>80</v>
+      </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
@@ -11439,6 +12487,18 @@
       <c r="E360" t="s">
         <v>290</v>
       </c>
+      <c r="G360">
+        <v>11.7</v>
+      </c>
+      <c r="H360">
+        <v>6.3</v>
+      </c>
+      <c r="I360">
+        <v>7.1</v>
+      </c>
+      <c r="J360">
+        <v>90</v>
+      </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
@@ -11456,8 +12516,20 @@
       <c r="E361" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G361">
+        <v>6.4</v>
+      </c>
+      <c r="H361">
+        <v>5.4</v>
+      </c>
+      <c r="I361">
+        <v>7.4</v>
+      </c>
+      <c r="J361">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>380</v>
       </c>
@@ -11486,7 +12558,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>383</v>
       </c>
@@ -11515,7 +12587,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>384</v>
       </c>
@@ -11544,7 +12616,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>385</v>
       </c>
@@ -11573,7 +12645,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>386</v>
       </c>
@@ -11602,7 +12674,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>387</v>
       </c>
@@ -11631,7 +12703,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>388</v>
       </c>
@@ -11660,7 +12732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>389</v>
       </c>
@@ -11689,7 +12761,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>390</v>
       </c>
@@ -11718,7 +12790,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>391</v>
       </c>
@@ -11747,7 +12819,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>392</v>
       </c>
@@ -11776,7 +12848,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
@@ -11805,7 +12877,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>394</v>
       </c>
@@ -11837,7 +12909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>395</v>
       </c>
@@ -11869,7 +12941,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>396</v>
       </c>
@@ -11898,7 +12970,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>397</v>
       </c>
@@ -11927,7 +12999,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>398</v>
       </c>
@@ -11956,7 +13028,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>399</v>
       </c>
@@ -11985,7 +13057,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>400</v>
       </c>
@@ -12014,7 +13086,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>401</v>
       </c>
@@ -12043,7 +13115,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>402</v>
       </c>
@@ -12062,20 +13134,20 @@
       <c r="F382" t="s">
         <v>662</v>
       </c>
-      <c r="G382" s="1" t="s">
+      <c r="G382" t="s">
         <v>660</v>
       </c>
-      <c r="H382" s="1" t="s">
+      <c r="H382" t="s">
         <v>660</v>
       </c>
-      <c r="I382" s="1" t="s">
+      <c r="I382" t="s">
         <v>660</v>
       </c>
-      <c r="J382" s="1" t="s">
+      <c r="J382" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>403</v>
       </c>
@@ -12094,20 +13166,20 @@
       <c r="F383" t="s">
         <v>662</v>
       </c>
-      <c r="G383" s="1" t="s">
+      <c r="G383" t="s">
         <v>660</v>
       </c>
-      <c r="H383" s="1" t="s">
+      <c r="H383" t="s">
         <v>660</v>
       </c>
-      <c r="I383" s="1" t="s">
+      <c r="I383" t="s">
         <v>660</v>
       </c>
-      <c r="J383" s="1" t="s">
+      <c r="J383" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>404</v>
       </c>
@@ -12136,7 +13208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>405</v>
       </c>
@@ -12165,7 +13237,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>406</v>
       </c>
@@ -12194,7 +13266,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>407</v>
       </c>
@@ -12226,7 +13298,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>408</v>
       </c>
@@ -12255,7 +13327,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>409</v>
       </c>
@@ -12284,7 +13356,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>410</v>
       </c>
@@ -12313,7 +13385,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>411</v>
       </c>
@@ -12342,7 +13414,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>412</v>
       </c>
@@ -12371,7 +13443,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>413</v>
       </c>
@@ -12400,7 +13472,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>414</v>
       </c>
@@ -12429,7 +13501,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>415</v>
       </c>
@@ -12458,7 +13530,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>416</v>
       </c>
@@ -12487,7 +13559,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>417</v>
       </c>
@@ -12519,7 +13591,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>418</v>
       </c>
@@ -12548,7 +13620,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>419</v>
       </c>
@@ -12577,7 +13649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>420</v>
       </c>
@@ -12606,7 +13678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>421</v>
       </c>
@@ -12635,7 +13707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>422</v>
       </c>
@@ -12664,7 +13736,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>423</v>
       </c>
@@ -12693,7 +13765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>424</v>
       </c>
@@ -12722,7 +13794,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>425</v>
       </c>
@@ -12751,7 +13823,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>426</v>
       </c>
@@ -12780,7 +13852,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>427</v>
       </c>
@@ -12809,7 +13881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>428</v>
       </c>
@@ -12838,7 +13910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>429</v>
       </c>
@@ -12867,7 +13939,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>430</v>
       </c>
@@ -12896,7 +13968,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>431</v>
       </c>
@@ -12925,7 +13997,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>432</v>
       </c>
@@ -12954,7 +14026,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>433</v>
       </c>
@@ -12983,7 +14055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>434</v>
       </c>
@@ -13012,7 +14084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>435</v>
       </c>
@@ -13041,7 +14113,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>436</v>
       </c>
@@ -13073,7 +14145,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>437</v>
       </c>
@@ -13105,7 +14177,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>438</v>
       </c>
@@ -13134,7 +14206,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>439</v>
       </c>
@@ -13163,7 +14235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>440</v>
       </c>
@@ -13192,7 +14264,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>441</v>
       </c>
@@ -13224,7 +14296,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>442</v>
       </c>
@@ -13253,7 +14325,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>443</v>
       </c>
@@ -13285,7 +14357,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>444</v>
       </c>
@@ -13314,7 +14386,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>445</v>
       </c>
@@ -13343,7 +14415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>446</v>
       </c>
@@ -13372,7 +14444,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>447</v>
       </c>
@@ -13401,7 +14473,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>448</v>
       </c>
@@ -13430,7 +14502,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>449</v>
       </c>
@@ -13459,7 +14531,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>450</v>
       </c>
@@ -13488,7 +14560,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>451</v>
       </c>
@@ -13520,7 +14592,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>452</v>
       </c>
@@ -13549,7 +14621,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>453</v>
       </c>
@@ -13578,7 +14650,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>454</v>
       </c>
@@ -13607,7 +14679,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>455</v>
       </c>
@@ -13636,7 +14708,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>456</v>
       </c>
@@ -13665,7 +14737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>457</v>
       </c>
@@ -13694,7 +14766,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>458</v>
       </c>
@@ -13723,7 +14795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>459</v>
       </c>
@@ -13752,7 +14824,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>460</v>
       </c>
@@ -13781,7 +14853,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>461</v>
       </c>
@@ -13810,7 +14882,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>462</v>
       </c>
@@ -13839,7 +14911,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>463</v>
       </c>
@@ -13868,7 +14940,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>464</v>
       </c>
@@ -13897,7 +14969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>465</v>
       </c>
@@ -13926,7 +14998,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>466</v>
       </c>
@@ -13955,7 +15027,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>467</v>
       </c>
@@ -13984,7 +15056,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>468</v>
       </c>
@@ -14013,7 +15085,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>469</v>
       </c>
@@ -14042,7 +15114,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>470</v>
       </c>
@@ -14071,7 +15143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>471</v>
       </c>
@@ -14090,20 +15162,20 @@
       <c r="F451" t="s">
         <v>661</v>
       </c>
-      <c r="G451" s="1" t="s">
+      <c r="G451" t="s">
         <v>660</v>
       </c>
-      <c r="H451" s="1" t="s">
+      <c r="H451" t="s">
         <v>660</v>
       </c>
-      <c r="I451" s="1" t="s">
+      <c r="I451" t="s">
         <v>660</v>
       </c>
-      <c r="J451" s="1" t="s">
+      <c r="J451" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>472</v>
       </c>
@@ -14119,8 +15191,20 @@
       <c r="E452" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G452">
+        <v>3.9</v>
+      </c>
+      <c r="H452">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I452">
+        <v>2.9</v>
+      </c>
+      <c r="J452">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>475</v>
       </c>
@@ -14136,8 +15220,20 @@
       <c r="E453" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G453">
+        <v>10.1</v>
+      </c>
+      <c r="H453">
+        <v>10.5</v>
+      </c>
+      <c r="I453">
+        <v>11</v>
+      </c>
+      <c r="J453">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>476</v>
       </c>
@@ -14153,8 +15249,20 @@
       <c r="E454" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G454">
+        <v>4.2</v>
+      </c>
+      <c r="H454">
+        <v>4.5</v>
+      </c>
+      <c r="I454">
+        <v>4.2</v>
+      </c>
+      <c r="J454">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>477</v>
       </c>
@@ -14170,8 +15278,20 @@
       <c r="E455" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G455">
+        <v>6.3</v>
+      </c>
+      <c r="H455">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I455">
+        <v>6.9</v>
+      </c>
+      <c r="J455">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>478</v>
       </c>
@@ -14187,8 +15307,20 @@
       <c r="E456" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G456">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H456">
+        <v>3.7</v>
+      </c>
+      <c r="I456">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J456">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>479</v>
       </c>
@@ -14204,8 +15336,20 @@
       <c r="E457" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G457">
+        <v>10.9</v>
+      </c>
+      <c r="H457">
+        <v>5.8</v>
+      </c>
+      <c r="I457">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J457">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>480</v>
       </c>
@@ -14221,8 +15365,20 @@
       <c r="E458" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G458">
+        <v>4.2</v>
+      </c>
+      <c r="H458">
+        <v>6.1</v>
+      </c>
+      <c r="I458">
+        <v>8</v>
+      </c>
+      <c r="J458">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>481</v>
       </c>
@@ -14238,8 +15394,20 @@
       <c r="E459" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G459">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H459">
+        <v>9.5</v>
+      </c>
+      <c r="I459">
+        <v>8</v>
+      </c>
+      <c r="J459">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>482</v>
       </c>
@@ -14255,8 +15423,20 @@
       <c r="E460" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G460">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H460">
+        <v>15.5</v>
+      </c>
+      <c r="I460">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J460">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>483</v>
       </c>
@@ -14272,8 +15452,20 @@
       <c r="E461" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G461">
+        <v>9.1</v>
+      </c>
+      <c r="H461">
+        <v>5.3</v>
+      </c>
+      <c r="I461">
+        <v>9.4</v>
+      </c>
+      <c r="J461">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>484</v>
       </c>
@@ -14289,8 +15481,20 @@
       <c r="E462" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G462">
+        <v>11.9</v>
+      </c>
+      <c r="H462">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I462">
+        <v>6.9</v>
+      </c>
+      <c r="J462">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>485</v>
       </c>
@@ -14306,8 +15510,20 @@
       <c r="E463" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G463">
+        <v>7.5</v>
+      </c>
+      <c r="H463">
+        <v>5.9</v>
+      </c>
+      <c r="I463">
+        <v>11.6</v>
+      </c>
+      <c r="J463">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>486</v>
       </c>
@@ -14323,8 +15539,20 @@
       <c r="E464" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G464">
+        <v>5.5</v>
+      </c>
+      <c r="H464">
+        <v>11.7</v>
+      </c>
+      <c r="I464">
+        <v>9.1</v>
+      </c>
+      <c r="J464">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>487</v>
       </c>
@@ -14340,8 +15568,20 @@
       <c r="E465" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G465">
+        <v>7.6</v>
+      </c>
+      <c r="H465">
+        <v>5.8</v>
+      </c>
+      <c r="I465">
+        <v>5.8</v>
+      </c>
+      <c r="J465">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>488</v>
       </c>
@@ -14357,8 +15597,20 @@
       <c r="E466" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G466">
+        <v>14.8</v>
+      </c>
+      <c r="H466">
+        <v>11.6</v>
+      </c>
+      <c r="I466">
+        <v>13</v>
+      </c>
+      <c r="J466">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>489</v>
       </c>
@@ -14374,8 +15626,20 @@
       <c r="E467" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G467">
+        <v>6.4</v>
+      </c>
+      <c r="H467">
+        <v>7.7</v>
+      </c>
+      <c r="I467">
+        <v>5.7</v>
+      </c>
+      <c r="J467">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>490</v>
       </c>
@@ -14391,8 +15655,20 @@
       <c r="E468" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G468">
+        <v>3.4</v>
+      </c>
+      <c r="H468">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I468">
+        <v>10.9</v>
+      </c>
+      <c r="J468">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>491</v>
       </c>
@@ -14408,8 +15684,20 @@
       <c r="E469" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G469">
+        <v>7.9</v>
+      </c>
+      <c r="H469">
+        <v>7.3</v>
+      </c>
+      <c r="I469">
+        <v>11.3</v>
+      </c>
+      <c r="J469">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>492</v>
       </c>
@@ -14425,8 +15713,20 @@
       <c r="E470" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G470">
+        <v>10</v>
+      </c>
+      <c r="H470">
+        <v>5.7</v>
+      </c>
+      <c r="I470">
+        <v>6.5</v>
+      </c>
+      <c r="J470">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>493</v>
       </c>
@@ -14442,8 +15742,20 @@
       <c r="E471" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G471">
+        <v>7.7</v>
+      </c>
+      <c r="H471">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I471">
+        <v>5.5</v>
+      </c>
+      <c r="J471">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>494</v>
       </c>
@@ -14459,8 +15771,20 @@
       <c r="E472" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G472">
+        <v>6.5</v>
+      </c>
+      <c r="H472">
+        <v>1.9</v>
+      </c>
+      <c r="I472">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J472">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>495</v>
       </c>
@@ -14476,8 +15800,20 @@
       <c r="E473" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G473">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H473">
+        <v>4.3</v>
+      </c>
+      <c r="I473">
+        <v>5.7</v>
+      </c>
+      <c r="J473">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>496</v>
       </c>
@@ -14493,8 +15829,20 @@
       <c r="E474" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G474">
+        <v>12.7</v>
+      </c>
+      <c r="H474">
+        <v>7.9</v>
+      </c>
+      <c r="I474">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J474">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>497</v>
       </c>
@@ -14510,8 +15858,20 @@
       <c r="E475" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G475">
+        <v>4.2</v>
+      </c>
+      <c r="H475">
+        <v>6.2</v>
+      </c>
+      <c r="I475">
+        <v>6.4</v>
+      </c>
+      <c r="J475">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>498</v>
       </c>
@@ -14527,8 +15887,20 @@
       <c r="E476" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G476">
+        <v>4.5</v>
+      </c>
+      <c r="H476">
+        <v>5.8</v>
+      </c>
+      <c r="I476">
+        <v>5.4</v>
+      </c>
+      <c r="J476">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>499</v>
       </c>
@@ -14544,8 +15916,20 @@
       <c r="E477" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G477">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H477">
+        <v>5.2</v>
+      </c>
+      <c r="I477">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J477">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>500</v>
       </c>
@@ -14561,8 +15945,20 @@
       <c r="E478" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G478">
+        <v>14.1</v>
+      </c>
+      <c r="H478">
+        <v>10.7</v>
+      </c>
+      <c r="I478">
+        <v>13.6</v>
+      </c>
+      <c r="J478">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>501</v>
       </c>
@@ -14578,8 +15974,20 @@
       <c r="E479" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G479">
+        <v>8.5</v>
+      </c>
+      <c r="H479">
+        <v>7.1</v>
+      </c>
+      <c r="I479">
+        <v>8.6</v>
+      </c>
+      <c r="J479">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>502</v>
       </c>
@@ -14595,8 +16003,20 @@
       <c r="E480" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G480">
+        <v>5.8</v>
+      </c>
+      <c r="H480">
+        <v>7.3</v>
+      </c>
+      <c r="I480">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J480">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>503</v>
       </c>
@@ -14612,8 +16032,20 @@
       <c r="E481" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G481">
+        <v>7.7</v>
+      </c>
+      <c r="H481">
+        <v>22.9</v>
+      </c>
+      <c r="I481">
+        <v>11.3</v>
+      </c>
+      <c r="J481">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>504</v>
       </c>
@@ -14629,8 +16061,20 @@
       <c r="E482" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G482">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H482">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I482">
+        <v>9.1</v>
+      </c>
+      <c r="J482">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>505</v>
       </c>
@@ -14646,8 +16090,20 @@
       <c r="E483" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G483">
+        <v>3</v>
+      </c>
+      <c r="H483">
+        <v>2.4</v>
+      </c>
+      <c r="I483">
+        <v>7.5</v>
+      </c>
+      <c r="J483">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>506</v>
       </c>
@@ -14663,8 +16119,20 @@
       <c r="E484" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G484">
+        <v>5.3</v>
+      </c>
+      <c r="H484">
+        <v>6.2</v>
+      </c>
+      <c r="I484">
+        <v>7.2</v>
+      </c>
+      <c r="J484">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>507</v>
       </c>
@@ -14680,8 +16148,20 @@
       <c r="E485" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G485">
+        <v>4</v>
+      </c>
+      <c r="H485">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I485">
+        <v>9.4</v>
+      </c>
+      <c r="J485">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>508</v>
       </c>
@@ -14697,8 +16177,20 @@
       <c r="E486" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G486">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H486">
+        <v>4.7</v>
+      </c>
+      <c r="I486">
+        <v>5.4</v>
+      </c>
+      <c r="J486">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>509</v>
       </c>
@@ -14714,8 +16206,20 @@
       <c r="E487" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G487">
+        <v>9.9</v>
+      </c>
+      <c r="H487">
+        <v>5</v>
+      </c>
+      <c r="I487">
+        <v>7</v>
+      </c>
+      <c r="J487">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>510</v>
       </c>
@@ -14731,8 +16235,20 @@
       <c r="E488" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G488">
+        <v>4.5</v>
+      </c>
+      <c r="H488">
+        <v>13.7</v>
+      </c>
+      <c r="I488">
+        <v>10.5</v>
+      </c>
+      <c r="J488">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>511</v>
       </c>
@@ -14748,8 +16264,20 @@
       <c r="E489" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G489">
+        <v>3.6</v>
+      </c>
+      <c r="H489">
+        <v>11.3</v>
+      </c>
+      <c r="I489">
+        <v>9</v>
+      </c>
+      <c r="J489">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>512</v>
       </c>
@@ -14765,8 +16293,20 @@
       <c r="E490" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G490">
+        <v>5.3</v>
+      </c>
+      <c r="H490">
+        <v>4.8</v>
+      </c>
+      <c r="I490">
+        <v>9.4</v>
+      </c>
+      <c r="J490">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>513</v>
       </c>
@@ -14782,8 +16322,20 @@
       <c r="E491" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G491">
+        <v>17.7</v>
+      </c>
+      <c r="H491">
+        <v>15.9</v>
+      </c>
+      <c r="I491">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J491">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>514</v>
       </c>
@@ -14799,8 +16351,20 @@
       <c r="E492" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G492" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H492" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="I492" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="J492" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>515</v>
       </c>
@@ -14816,8 +16380,20 @@
       <c r="E493" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G493">
+        <v>8.4</v>
+      </c>
+      <c r="H493">
+        <v>8.5</v>
+      </c>
+      <c r="I493">
+        <v>12.3</v>
+      </c>
+      <c r="J493">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>516</v>
       </c>
@@ -14833,8 +16409,20 @@
       <c r="E494" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G494">
+        <v>13.9</v>
+      </c>
+      <c r="H494">
+        <v>11.4</v>
+      </c>
+      <c r="I494">
+        <v>16</v>
+      </c>
+      <c r="J494">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>517</v>
       </c>
@@ -14850,8 +16438,23 @@
       <c r="E495" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F495" t="s">
+        <v>661</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="H495" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="I495" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="J495" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>518</v>
       </c>
@@ -14867,8 +16470,20 @@
       <c r="E496" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G496">
+        <v>7.6</v>
+      </c>
+      <c r="H496">
+        <v>6.6</v>
+      </c>
+      <c r="I496">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J496">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>519</v>
       </c>
@@ -14884,8 +16499,20 @@
       <c r="E497" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G497">
+        <v>5.6</v>
+      </c>
+      <c r="H497">
+        <v>5.7</v>
+      </c>
+      <c r="I497">
+        <v>6.4</v>
+      </c>
+      <c r="J497">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>520</v>
       </c>
@@ -14901,8 +16528,20 @@
       <c r="E498" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G498">
+        <v>4</v>
+      </c>
+      <c r="H498">
+        <v>4.7</v>
+      </c>
+      <c r="I498">
+        <v>6.9</v>
+      </c>
+      <c r="J498">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>521</v>
       </c>
@@ -14918,8 +16557,20 @@
       <c r="E499" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G499">
+        <v>4</v>
+      </c>
+      <c r="H499">
+        <v>3.3</v>
+      </c>
+      <c r="I499">
+        <v>4</v>
+      </c>
+      <c r="J499">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>522</v>
       </c>
@@ -14935,8 +16586,20 @@
       <c r="E500" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G500">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H500">
+        <v>6.1</v>
+      </c>
+      <c r="I500">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J500">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>523</v>
       </c>
@@ -14952,8 +16615,20 @@
       <c r="E501" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G501">
+        <v>9.1</v>
+      </c>
+      <c r="H501">
+        <v>3.2</v>
+      </c>
+      <c r="I501">
+        <v>3.4</v>
+      </c>
+      <c r="J501">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>524</v>
       </c>
@@ -14969,8 +16644,20 @@
       <c r="E502" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G502">
+        <v>4.8</v>
+      </c>
+      <c r="H502">
+        <v>4.7</v>
+      </c>
+      <c r="I502">
+        <v>4.7</v>
+      </c>
+      <c r="J502">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>525</v>
       </c>
@@ -14986,8 +16673,20 @@
       <c r="E503" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G503">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H503">
+        <v>4.5</v>
+      </c>
+      <c r="I503">
+        <v>5</v>
+      </c>
+      <c r="J503">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>526</v>
       </c>
@@ -15003,8 +16702,20 @@
       <c r="E504" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G504">
+        <v>4.2</v>
+      </c>
+      <c r="H504">
+        <v>4.3</v>
+      </c>
+      <c r="I504">
+        <v>4.7</v>
+      </c>
+      <c r="J504">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>527</v>
       </c>
@@ -15020,8 +16731,20 @@
       <c r="E505" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G505">
+        <v>6.2</v>
+      </c>
+      <c r="H505">
+        <v>5.7</v>
+      </c>
+      <c r="I505">
+        <v>3.6</v>
+      </c>
+      <c r="J505">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>528</v>
       </c>
@@ -15037,8 +16760,20 @@
       <c r="E506" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G506">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H506">
+        <v>4.2</v>
+      </c>
+      <c r="I506">
+        <v>4</v>
+      </c>
+      <c r="J506">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>529</v>
       </c>
@@ -15054,8 +16789,20 @@
       <c r="E507" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G507">
+        <v>1.9</v>
+      </c>
+      <c r="H507">
+        <v>4.3</v>
+      </c>
+      <c r="I507">
+        <v>5.8</v>
+      </c>
+      <c r="J507">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>530</v>
       </c>
@@ -15071,8 +16818,20 @@
       <c r="E508" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G508">
+        <v>8.5</v>
+      </c>
+      <c r="H508">
+        <v>3.6</v>
+      </c>
+      <c r="I508">
+        <v>6.8</v>
+      </c>
+      <c r="J508">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>531</v>
       </c>
@@ -15088,8 +16847,20 @@
       <c r="E509" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G509">
+        <v>7.1</v>
+      </c>
+      <c r="H509">
+        <v>7.5</v>
+      </c>
+      <c r="I509">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J509">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>532</v>
       </c>
@@ -15105,8 +16876,20 @@
       <c r="E510" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G510">
+        <v>8.4</v>
+      </c>
+      <c r="H510">
+        <v>8.6</v>
+      </c>
+      <c r="I510">
+        <v>9.6</v>
+      </c>
+      <c r="J510">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>533</v>
       </c>
@@ -15122,8 +16905,20 @@
       <c r="E511" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G511">
+        <v>12.9</v>
+      </c>
+      <c r="H511">
+        <v>27.3</v>
+      </c>
+      <c r="I511">
+        <v>23.7</v>
+      </c>
+      <c r="J511">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>534</v>
       </c>
@@ -15139,8 +16934,20 @@
       <c r="E512" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G512">
+        <v>4.7</v>
+      </c>
+      <c r="H512">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I512">
+        <v>5.2</v>
+      </c>
+      <c r="J512">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>535</v>
       </c>
@@ -15156,8 +16963,20 @@
       <c r="E513" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G513">
+        <v>7</v>
+      </c>
+      <c r="H513">
+        <v>5.6</v>
+      </c>
+      <c r="I513">
+        <v>5.9</v>
+      </c>
+      <c r="J513">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>536</v>
       </c>
@@ -15173,8 +16992,20 @@
       <c r="E514" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G514">
+        <v>5.2</v>
+      </c>
+      <c r="H514">
+        <v>4.2</v>
+      </c>
+      <c r="I514">
+        <v>3.9</v>
+      </c>
+      <c r="J514">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>537</v>
       </c>
@@ -15190,8 +17021,20 @@
       <c r="E515" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G515">
+        <v>3.9</v>
+      </c>
+      <c r="H515">
+        <v>4.3</v>
+      </c>
+      <c r="I515">
+        <v>3.5</v>
+      </c>
+      <c r="J515">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>538</v>
       </c>
@@ -15207,8 +17050,20 @@
       <c r="E516" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G516">
+        <v>3.2</v>
+      </c>
+      <c r="H516">
+        <v>4.5</v>
+      </c>
+      <c r="I516">
+        <v>3.7</v>
+      </c>
+      <c r="J516">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>539</v>
       </c>
@@ -15224,8 +17079,23 @@
       <c r="E517" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F517" t="s">
+        <v>661</v>
+      </c>
+      <c r="G517" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="H517" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="I517" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="J517" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>540</v>
       </c>
@@ -15241,8 +17111,20 @@
       <c r="E518" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G518" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H518" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="I518" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="J518" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>541</v>
       </c>
@@ -15258,8 +17140,20 @@
       <c r="E519" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G519" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H519" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="I519" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="J519" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>542</v>
       </c>
@@ -15275,8 +17169,20 @@
       <c r="E520" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G520" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="H520" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="I520" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="J520" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>543</v>
       </c>
@@ -15292,8 +17198,20 @@
       <c r="E521" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G521" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="H521" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="I521" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J521" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>544</v>
       </c>
@@ -15309,8 +17227,20 @@
       <c r="E522" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G522">
+        <v>5.3</v>
+      </c>
+      <c r="H522">
+        <v>5.3</v>
+      </c>
+      <c r="I522">
+        <v>3.8</v>
+      </c>
+      <c r="J522">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>545</v>
       </c>
@@ -15326,8 +17256,20 @@
       <c r="E523" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G523">
+        <v>13.7</v>
+      </c>
+      <c r="H523">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="I523">
+        <v>9.9</v>
+      </c>
+      <c r="J523">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>546</v>
       </c>
@@ -15343,8 +17285,20 @@
       <c r="E524" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G524">
+        <v>10.3</v>
+      </c>
+      <c r="H524">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I524">
+        <v>3.3</v>
+      </c>
+      <c r="J524">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>547</v>
       </c>
@@ -15360,8 +17314,20 @@
       <c r="E525" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G525">
+        <v>6</v>
+      </c>
+      <c r="H525">
+        <v>9.1</v>
+      </c>
+      <c r="I525">
+        <v>4.3</v>
+      </c>
+      <c r="J525">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>548</v>
       </c>
@@ -15377,8 +17343,20 @@
       <c r="E526" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G526">
+        <v>8.4</v>
+      </c>
+      <c r="H526">
+        <v>6.8</v>
+      </c>
+      <c r="I526">
+        <v>6</v>
+      </c>
+      <c r="J526">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>549</v>
       </c>
@@ -15394,8 +17372,20 @@
       <c r="E527" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G527">
+        <v>4.3</v>
+      </c>
+      <c r="H527">
+        <v>5.2</v>
+      </c>
+      <c r="I527">
+        <v>5.8</v>
+      </c>
+      <c r="J527">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>550</v>
       </c>
@@ -15411,8 +17401,20 @@
       <c r="E528" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G528">
+        <v>6.9</v>
+      </c>
+      <c r="H528">
+        <v>3.9</v>
+      </c>
+      <c r="I528">
+        <v>4.8</v>
+      </c>
+      <c r="J528">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>551</v>
       </c>
@@ -15428,8 +17430,20 @@
       <c r="E529" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G529">
+        <v>6.5</v>
+      </c>
+      <c r="H529">
+        <v>4</v>
+      </c>
+      <c r="I529">
+        <v>3.8</v>
+      </c>
+      <c r="J529">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>552</v>
       </c>
@@ -15445,8 +17459,20 @@
       <c r="E530" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G530">
+        <v>5.2</v>
+      </c>
+      <c r="H530">
+        <v>5</v>
+      </c>
+      <c r="I530">
+        <v>4.2</v>
+      </c>
+      <c r="J530">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>553</v>
       </c>
@@ -15462,8 +17488,20 @@
       <c r="E531" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G531">
+        <v>3.7</v>
+      </c>
+      <c r="H531">
+        <v>3.8</v>
+      </c>
+      <c r="I531">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J531">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>554</v>
       </c>
@@ -15479,8 +17517,20 @@
       <c r="E532" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G532">
+        <v>10.3</v>
+      </c>
+      <c r="H532" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="I532">
+        <v>12.3</v>
+      </c>
+      <c r="J532">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>555</v>
       </c>
@@ -15496,8 +17546,20 @@
       <c r="E533" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G533">
+        <v>3.4</v>
+      </c>
+      <c r="H533">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I533">
+        <v>4.5</v>
+      </c>
+      <c r="J533">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>556</v>
       </c>
@@ -15513,8 +17575,20 @@
       <c r="E534" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G534">
+        <v>3</v>
+      </c>
+      <c r="H534">
+        <v>2.9</v>
+      </c>
+      <c r="I534">
+        <v>2.6</v>
+      </c>
+      <c r="J534">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>557</v>
       </c>
@@ -15530,8 +17604,20 @@
       <c r="E535" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G535">
+        <v>5.6</v>
+      </c>
+      <c r="H535">
+        <v>6.3</v>
+      </c>
+      <c r="I535">
+        <v>7</v>
+      </c>
+      <c r="J535">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>558</v>
       </c>
@@ -15547,8 +17633,20 @@
       <c r="E536" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G536">
+        <v>3.1</v>
+      </c>
+      <c r="H536">
+        <v>3.4</v>
+      </c>
+      <c r="I536">
+        <v>2.7</v>
+      </c>
+      <c r="J536">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>559</v>
       </c>
@@ -15564,8 +17662,20 @@
       <c r="E537" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G537">
+        <v>5</v>
+      </c>
+      <c r="H537">
+        <v>6</v>
+      </c>
+      <c r="I537">
+        <v>7.2</v>
+      </c>
+      <c r="J537">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>560</v>
       </c>
@@ -15581,8 +17691,20 @@
       <c r="E538" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G538">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H538">
+        <v>11.2</v>
+      </c>
+      <c r="I538">
+        <v>6.6</v>
+      </c>
+      <c r="J538">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>561</v>
       </c>
@@ -15598,8 +17720,20 @@
       <c r="E539" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G539">
+        <v>2</v>
+      </c>
+      <c r="H539">
+        <v>6.5</v>
+      </c>
+      <c r="I539">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J539">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>562</v>
       </c>
@@ -15615,8 +17749,20 @@
       <c r="E540" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G540">
+        <v>5.7</v>
+      </c>
+      <c r="H540">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I540">
+        <v>6.7</v>
+      </c>
+      <c r="J540">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>563</v>
       </c>
@@ -15632,8 +17778,20 @@
       <c r="E541" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G541">
+        <v>5.2</v>
+      </c>
+      <c r="H541">
+        <v>2</v>
+      </c>
+      <c r="I541">
+        <v>5</v>
+      </c>
+      <c r="J541">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>564</v>
       </c>
@@ -15650,7 +17808,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>567</v>
       </c>
@@ -15667,7 +17825,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>568</v>
       </c>
@@ -15684,7 +17842,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>569</v>
       </c>
@@ -15701,7 +17859,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>570</v>
       </c>
@@ -15718,7 +17876,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>571</v>
       </c>
@@ -15735,7 +17893,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>572</v>
       </c>
@@ -15752,7 +17910,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>573</v>
       </c>
@@ -15769,7 +17927,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>574</v>
       </c>
@@ -15786,7 +17944,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>575</v>
       </c>
@@ -15803,7 +17961,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>576</v>
       </c>
@@ -15820,7 +17978,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>577</v>
       </c>
@@ -15837,7 +17995,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>578</v>
       </c>
@@ -15854,7 +18012,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>579</v>
       </c>
@@ -15871,7 +18029,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>580</v>
       </c>
@@ -15888,7 +18046,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>581</v>
       </c>
@@ -15905,7 +18063,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>582</v>
       </c>
@@ -15922,7 +18080,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>583</v>
       </c>
@@ -15939,7 +18097,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>584</v>
       </c>
@@ -15956,7 +18114,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>585</v>
       </c>
@@ -15973,7 +18131,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>586</v>
       </c>
@@ -15990,7 +18148,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>587</v>
       </c>
@@ -16007,7 +18165,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>588</v>
       </c>
@@ -16024,7 +18182,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>589</v>
       </c>
@@ -16041,7 +18199,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>590</v>
       </c>
@@ -16058,7 +18216,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>591</v>
       </c>
@@ -16075,7 +18233,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>592</v>
       </c>
@@ -16092,7 +18250,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>593</v>
       </c>
@@ -16109,7 +18267,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>594</v>
       </c>
@@ -16126,7 +18284,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>595</v>
       </c>
@@ -16143,7 +18301,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>596</v>
       </c>
@@ -16160,7 +18318,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>597</v>
       </c>
@@ -16177,7 +18335,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>598</v>
       </c>
@@ -16194,7 +18352,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>599</v>
       </c>
@@ -16211,7 +18369,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>600</v>
       </c>
@@ -16228,7 +18386,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>601</v>
       </c>
@@ -16245,7 +18403,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>602</v>
       </c>
@@ -16262,7 +18420,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>603</v>
       </c>
@@ -16279,7 +18437,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>604</v>
       </c>
@@ -16296,7 +18454,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>605</v>
       </c>
@@ -16313,7 +18471,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>606</v>
       </c>
@@ -16330,7 +18488,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>607</v>
       </c>
@@ -16347,7 +18505,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>608</v>
       </c>
@@ -16364,7 +18522,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>609</v>
       </c>
@@ -16381,7 +18539,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>610</v>
       </c>
@@ -16398,7 +18556,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>611</v>
       </c>
@@ -16415,7 +18573,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>612</v>
       </c>
@@ -16432,7 +18590,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>613</v>
       </c>
@@ -16449,7 +18607,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>614</v>
       </c>
@@ -16466,7 +18624,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>615</v>
       </c>
@@ -16483,7 +18641,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>616</v>
       </c>
@@ -16500,7 +18658,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>617</v>
       </c>
@@ -16517,7 +18675,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>618</v>
       </c>
@@ -16534,7 +18692,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>619</v>
       </c>
@@ -16551,7 +18709,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>620</v>
       </c>
@@ -16568,7 +18726,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>621</v>
       </c>
@@ -16585,7 +18743,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>622</v>
       </c>
@@ -16602,7 +18760,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>623</v>
       </c>
@@ -16619,7 +18777,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>624</v>
       </c>
@@ -16636,7 +18794,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>625</v>
       </c>
@@ -16653,7 +18811,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>626</v>
       </c>
@@ -16670,7 +18828,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>627</v>
       </c>
@@ -16687,7 +18845,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>628</v>
       </c>
@@ -16704,7 +18862,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>629</v>
       </c>
@@ -16721,7 +18879,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>630</v>
       </c>
@@ -16738,7 +18896,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>631</v>
       </c>
@@ -16755,7 +18913,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>632</v>
       </c>
@@ -16772,7 +18930,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>633</v>
       </c>
@@ -16789,7 +18947,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>634</v>
       </c>
@@ -16806,7 +18964,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>635</v>
       </c>
@@ -16823,7 +18981,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>636</v>
       </c>
@@ -16840,7 +18998,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>637</v>
       </c>
@@ -16857,7 +19015,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>638</v>
       </c>
@@ -16874,7 +19032,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>639</v>
       </c>
@@ -16891,7 +19049,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>640</v>
       </c>
@@ -16908,7 +19066,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>641</v>
       </c>
@@ -16925,7 +19083,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>642</v>
       </c>
@@ -16942,7 +19100,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>643</v>
       </c>
@@ -16959,7 +19117,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>644</v>
       </c>
@@ -16976,7 +19134,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>645</v>
       </c>
@@ -16993,7 +19151,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>646</v>
       </c>
@@ -17010,7 +19168,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>647</v>
       </c>
@@ -17027,7 +19185,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>648</v>
       </c>
@@ -17044,7 +19202,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>649</v>
       </c>
@@ -17061,7 +19219,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>650</v>
       </c>
@@ -17078,7 +19236,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>651</v>
       </c>
@@ -17095,7 +19253,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>652</v>
       </c>
@@ -17112,7 +19270,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>653</v>
       </c>
@@ -17129,7 +19287,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>654</v>
       </c>
@@ -17146,7 +19304,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>655</v>
       </c>
